--- a/sequences_processing/16S/16S_results/bi_gender_16S_B.xlsx
+++ b/sequences_processing/16S/16S_results/bi_gender_16S_B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -428,247 +434,385 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.40223069875198</v>
+        <v>6.35968471046028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.950459311427373</v>
+        <v>0.996261894286782</v>
+      </c>
+      <c r="D2" t="n">
+        <v>996.033333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>996.153543307087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4.57122857274248</v>
+        <v>6.51683902424529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.958068073853031</v>
+        <v>0.997179198403852</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1171.57142857143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1170.88340807175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.29880125279484</v>
+        <v>6.23536064803442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.946948483013978</v>
+        <v>0.996224660194328</v>
+      </c>
+      <c r="D4" t="n">
+        <v>865.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>864.811518324607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>4.47110248613975</v>
+        <v>6.33487403108198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.957622347192399</v>
+        <v>0.996943362195847</v>
+      </c>
+      <c r="D5" t="n">
+        <v>895.961538461538</v>
+      </c>
+      <c r="E5" t="n">
+        <v>895.771899392888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>4.45700249950232</v>
+        <v>6.31502016047339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.958075588194044</v>
+        <v>0.996752965520192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>887.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>887.310891089109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>4.39762022910046</v>
+        <v>6.33107702671102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.948328172622463</v>
+        <v>0.996417250698784</v>
+      </c>
+      <c r="D7" t="n">
+        <v>940.026315789474</v>
+      </c>
+      <c r="E7" t="n">
+        <v>940.157813702848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>4.25920727862423</v>
+        <v>6.17434659283688</v>
       </c>
       <c r="C8" t="n">
-        <v>0.943846135108554</v>
+        <v>0.995675387487887</v>
+      </c>
+      <c r="D8" t="n">
+        <v>818.142857142857</v>
+      </c>
+      <c r="E8" t="n">
+        <v>817.620535714286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>4.36629210363539</v>
+        <v>6.06517109848998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.953660912614027</v>
+        <v>0.994830326133645</v>
+      </c>
+      <c r="D9" t="n">
+        <v>744</v>
+      </c>
+      <c r="E9" t="n">
+        <v>744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>4.42498875871796</v>
+        <v>6.1322624710017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.95499304320581</v>
+        <v>0.996395043773871</v>
+      </c>
+      <c r="D10" t="n">
+        <v>748</v>
+      </c>
+      <c r="E10" t="n">
+        <v>748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>4.25602147442264</v>
+        <v>6.0375112036706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.946893175882071</v>
+        <v>0.995422703783936</v>
+      </c>
+      <c r="D11" t="n">
+        <v>688</v>
+      </c>
+      <c r="E11" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>4.22228569271896</v>
+        <v>6.13142048737542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.940242106792986</v>
+        <v>0.994950162351125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>875.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>875.627209838586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>4.43142887919641</v>
+        <v>6.3246632780408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.954412536868184</v>
+        <v>0.996738319712002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>932.5625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>931.788824979458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>4.3061614608558</v>
+        <v>6.29560501536601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9471644973676</v>
+        <v>0.996162921036051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>899.5625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>899.469101123595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>4.50164254585771</v>
+        <v>6.37839658615055</v>
       </c>
       <c r="C15" t="n">
-        <v>0.958453129333367</v>
+        <v>0.996891116205497</v>
+      </c>
+      <c r="D15" t="n">
+        <v>966.03125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>966.157088122605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>4.53530910741343</v>
+        <v>6.46875247601155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.957655093587896</v>
+        <v>0.996991588934037</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1085.68421052632</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1085.30198915009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>4.50762485001733</v>
+        <v>6.37382222870929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.958596654327935</v>
+        <v>0.99655953229069</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1036.025</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1034.83448275862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>3.98420253994667</v>
+        <v>5.69939262678587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.941159558400189</v>
+        <v>0.993463868229226</v>
+      </c>
+      <c r="D18" t="n">
+        <v>499</v>
+      </c>
+      <c r="E18" t="n">
+        <v>499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>4.36243947042244</v>
+        <v>6.13818043097331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.95529962112851</v>
+        <v>0.996277823247331</v>
+      </c>
+      <c r="D19" t="n">
+        <v>749.45</v>
+      </c>
+      <c r="E19" t="n">
+        <v>749.485950413223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>4.25012518479629</v>
+        <v>6.05404548885356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.95011864809197</v>
+        <v>0.995989318336753</v>
+      </c>
+      <c r="D20" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>670.32967032967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>4.33239557108481</v>
+        <v>6.33067995236049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.950002970653481</v>
+        <v>0.996416328848045</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1000.78260869565</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1000.99568167798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>4.28016118459938</v>
+        <v>5.89374550714243</v>
       </c>
       <c r="C22" t="n">
-        <v>0.953426276577312</v>
+        <v>0.994935414505815</v>
+      </c>
+      <c r="D22" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>587.317365269461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>4.22304160268399</v>
+        <v>6.08483178705156</v>
       </c>
       <c r="C23" t="n">
-        <v>0.949367225619816</v>
+        <v>0.995581466886435</v>
+      </c>
+      <c r="D23" t="n">
+        <v>738.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>738.31926121372</v>
       </c>
     </row>
   </sheetData>
